--- a/structure/K12.xlsx
+++ b/structure/K12.xlsx
@@ -8,30 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bercos\PycharmProjects\benchmark_straight_bridge\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DFB23D-9713-4AE0-8948-16E5A1C42C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774FD01D-6433-4DBC-AC90-C46622510C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Elements" sheetId="2" r:id="rId2"/>
-    <sheet name="LocalAxes" sheetId="3" r:id="rId3"/>
+    <sheet name="Local axes" sheetId="3" r:id="rId3"/>
     <sheet name="Material" sheetId="4" r:id="rId4"/>
     <sheet name="Section" sheetId="5" r:id="rId5"/>
     <sheet name="Wind" sheetId="6" r:id="rId6"/>
-    <sheet name="Other" sheetId="7" r:id="rId7"/>
+    <sheet name="Aero" sheetId="8" r:id="rId7"/>
+    <sheet name="Boundaries" sheetId="10" r:id="rId8"/>
+    <sheet name="Other" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>Node</t>
   </si>
@@ -81,9 +94,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>gamma</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -151,6 +161,117 @@
   </si>
   <si>
     <t>z-dependent</t>
+  </si>
+  <si>
+    <t>Aero class</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Av</t>
+  </si>
+  <si>
+    <t>Aw</t>
+  </si>
+  <si>
+    <t>Cux</t>
+  </si>
+  <si>
+    <t>Cvx</t>
+  </si>
+  <si>
+    <t>Cwx</t>
+  </si>
+  <si>
+    <t>Cuy</t>
+  </si>
+  <si>
+    <t>Cvy</t>
+  </si>
+  <si>
+    <t>Cwy</t>
+  </si>
+  <si>
+    <t>Cuz</t>
+  </si>
+  <si>
+    <t>Cvz</t>
+  </si>
+  <si>
+    <t>Cwz</t>
+  </si>
+  <si>
+    <t>xLu</t>
+  </si>
+  <si>
+    <t>xLv</t>
+  </si>
+  <si>
+    <t>xLw</t>
+  </si>
+  <si>
+    <t>Coef</t>
+  </si>
+  <si>
+    <t>aero_coefs_Ls_2D_fit_cons_polimi-K12-G-L-TS-SVV.xlsx</t>
+  </si>
+  <si>
+    <t>kx</t>
+  </si>
+  <si>
+    <t>ky</t>
+  </si>
+  <si>
+    <t>kz</t>
+  </si>
+  <si>
+    <t>kxx</t>
+  </si>
+  <si>
+    <t>kyy</t>
+  </si>
+  <si>
+    <t>kzz</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>girder</t>
+  </si>
+  <si>
+    <t>pontoons</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>Iu</t>
+  </si>
+  <si>
+    <t>Iv</t>
+  </si>
+  <si>
+    <t>Iw</t>
+  </si>
+  <si>
+    <t>Strommen</t>
   </si>
 </sst>
 </file>
@@ -186,8 +307,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -512,18 +635,44 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -533,18 +682,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B257B5-FBD5-4F9C-8BEE-EBF54E41CD50}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -561,12 +711,55 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -576,10 +769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB1AC7-ADC6-4D00-BFF9-7B31ADD60380}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +801,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -615,15 +818,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541F17C9-5B30-47C7-8E65-BC5908FEEDC1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -633,13 +840,18 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <f>210000000000</f>
+        <v>210000000000</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/(2*(1+0.3))</f>
+        <v>80769230769.230774</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7DA03C-1C10-4EFD-8F8D-C363CE12E7CD}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -666,54 +878,54 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -723,34 +935,198 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA290483-06CD-44DD-A005-7E21BFC941D2}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>1.25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>6.8</v>
+      </c>
+      <c r="I2">
+        <v>9.4</v>
+      </c>
+      <c r="J2">
+        <v>9.4</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>6.5</v>
+      </c>
+      <c r="P2">
+        <v>6.5</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>6.5</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B83105-314D-4DAC-B403-B27B22BD57F5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="48.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -758,12 +1134,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20752F90-392D-4B59-9CF6-5D022F8436BF}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DFC7C5-7A37-46A9-8A43-2D44E996515B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,15 +1214,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0.02</v>
@@ -789,7 +1230,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -797,7 +1238,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>

--- a/structure/K12.xlsx
+++ b/structure/K12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bercos\PycharmProjects\benchmark_straight_bridge\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774FD01D-6433-4DBC-AC90-C46622510C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6136110A-DDBF-4EE8-A20C-47E3ED2F0837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>Node</t>
   </si>
@@ -226,9 +226,6 @@
     <t>xLw</t>
   </si>
   <si>
-    <t>Coef</t>
-  </si>
-  <si>
     <t>aero_coefs_Ls_2D_fit_cons_polimi-K12-G-L-TS-SVV.xlsx</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>girder</t>
   </si>
   <si>
-    <t>pontoons</t>
-  </si>
-  <si>
     <t>column</t>
   </si>
   <si>
@@ -272,6 +266,24 @@
   </si>
   <si>
     <t>Strommen</t>
+  </si>
+  <si>
+    <t>Coefficient method</t>
+  </si>
+  <si>
+    <t>Axes type</t>
+  </si>
+  <si>
+    <t>pontoon</t>
+  </si>
+  <si>
+    <t>(0,1,0)</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(-1,0,0)</t>
   </si>
 </sst>
 </file>
@@ -594,12 +606,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -630,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -644,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -658,7 +670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -672,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -685,16 +697,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -720,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -731,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -745,10 +757,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -759,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -769,15 +781,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB1AC7-ADC6-4D00-BFF9-7B31ADD60380}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -791,24 +803,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -820,17 +854,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541F17C9-5B30-47C7-8E65-BC5908FEEDC1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -841,7 +875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -867,13 +901,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" customWidth="1"/>
+    <col min="3" max="3" width="14.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -908,22 +942,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -937,19 +971,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA290483-06CD-44DD-A005-7E21BFC941D2}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.109375" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.07421875" customWidth="1"/>
+    <col min="20" max="20" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -963,13 +997,13 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>45</v>
@@ -1017,7 +1051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1070,10 +1104,10 @@
         <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1087,15 +1121,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1109,10 +1143,10 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1126,7 +1160,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1139,35 +1173,38 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1190,7 +1227,7 @@
         <v>1000000000000000</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1204,15 +1241,15 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1220,7 +1257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1228,7 +1265,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1236,7 +1273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>35</v>
       </c>

--- a/structure/K12.xlsx
+++ b/structure/K12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bercos\PycharmProjects\benchmark_straight_bridge\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6136110A-DDBF-4EE8-A20C-47E3ED2F0837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29421B00-7CE7-4553-AF8B-B9C65A3599B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>Node</t>
   </si>
@@ -106,12 +106,6 @@
     <t>S1</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Mxx</t>
-  </si>
-  <si>
     <t>Iyy</t>
   </si>
   <si>
@@ -284,16 +278,34 @@
   </si>
   <si>
     <t>(-1,0,0)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>FE max length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>mxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,10 +331,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,85 +625,88 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9.23046875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>125</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>250</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>125</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>76</v>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -697,84 +719,123 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.23046875" customWidth="1"/>
+    <col min="1" max="5" width="9.23046875" style="1"/>
+    <col min="6" max="6" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.23046875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>68</v>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>68</v>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>69</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -784,65 +845,68 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9.23046875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -854,36 +918,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541F17C9-5B30-47C7-8E65-BC5908FEEDC1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" customWidth="1"/>
+    <col min="1" max="1" width="9.23046875" style="1"/>
+    <col min="2" max="2" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <f>210000000000</f>
         <v>210000000000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <f>B2/(2*(1+0.3))</f>
         <v>80769230769.230774</v>
       </c>
@@ -897,68 +963,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7DA03C-1C10-4EFD-8F8D-C363CE12E7CD}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.765625" customWidth="1"/>
-    <col min="3" max="3" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.23046875" style="1"/>
+    <col min="2" max="2" width="10.765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B2" s="1">
+        <v>92398.428</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -972,142 +1046,145 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="U3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.07421875" customWidth="1"/>
-    <col min="20" max="20" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.84375" customWidth="1"/>
+    <col min="1" max="3" width="9.23046875" style="1"/>
+    <col min="4" max="4" width="11.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.07421875" style="1" customWidth="1"/>
+    <col min="8" max="19" width="9.23046875" style="1"/>
+    <col min="20" max="20" width="11.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.84375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H2" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>1.25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>6.8</v>
-      </c>
-      <c r="I2">
-        <v>9.4</v>
-      </c>
-      <c r="J2">
-        <v>9.4</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>6.5</v>
-      </c>
-      <c r="P2">
-        <v>6.5</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <v>6.5</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" t="s">
-        <v>73</v>
+      <c r="V2" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1198,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1130,37 +1207,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1170,64 +1247,93 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20752F90-392D-4B59-9CF6-5D022F8436BF}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9.23046875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000000000000000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000000000000000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1000000000000000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000000000000000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1000000000000000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1000000000000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>1000000000000000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="2">
         <v>1000000000000000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="2">
         <v>1000000000000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="2">
         <v>1000000000000000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="2">
         <v>1000000000000000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="2">
         <v>1000000000000000</v>
       </c>
-      <c r="H2" t="s">
-        <v>67</v>
+      <c r="H3" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1238,46 +1344,55 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DFC7C5-7A37-46A9-8A43-2D44E996515B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.765625" customWidth="1"/>
+    <col min="1" max="1" width="12.765625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
